--- a/offline/assets/client.xlsx
+++ b/offline/assets/client.xlsx
@@ -632,7 +632,7 @@
   <dimension ref="A3:I8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
